--- a/output/fit_clients/fit_round_53.xlsx
+++ b/output/fit_clients/fit_round_53.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>8903248619.130224</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003639012078689339</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>11</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.259041525977661</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9356967684577338</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.259041525977661</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>4734533011.75237</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.006209697319139512</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>11</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.91076360137785</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9016676352586751</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.91076360137785</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4396303454.947659</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002542948185715284</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.591689701559968</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.954286188197054</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-3.591689701559968</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3703065138.867953</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004482849914222787</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>13</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.7782174137710461</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.836561675155475</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.9805852536626963</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.836561675155475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>4911894822.036698</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002147562364538968</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>17</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.483510451091433</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8329143266617469</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.483510451091433</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>6249813058.162574</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001130367239881177</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>11</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.905406932366995</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9083534157818244</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.905406932366995</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>5011512401.737561</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.00289318263372822</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.543108394737777</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9436594317696231</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.543108394737777</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6747005947.674479</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.00370903970214367</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.502567473141978</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.8998983830989962</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-3.502567473141978</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3720096681.439837</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.003582949595453238</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>11</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.1913981529035037</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.907326477399535</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.3714526188040735</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.907326477399535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4595266114.1531</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001214511642184679</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>12</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.764343561096502</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7788227307011812</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.764343561096502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>6131692622.016586</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001402970212498616</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.2939445664947752</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.726786813085419</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.649240816455801</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-3.726786813085419</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4116166406.829245</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003712906053223964</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>14</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5374652040240757</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.592038509252428</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.9338535045438054</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.592038509252428</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>8973974110.959263</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003144490862690591</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.7802826687428727</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.21785807411221</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.03920088678881</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.21785807411221</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>5732406135.516874</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004938643064834968</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.331400681302184</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9636823527063102</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.331400681302184</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5394910020.760063</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.005641453561810094</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>10</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.7652384845196702</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.13980213261204</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.038519351360524</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.13980213261204</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6541753772.460135</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.003298905879271704</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950106</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.330851611518233</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9346882363767374</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-3.330851611518233</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>6207939920.334041</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001180728878651432</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4.701019843632491</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9627709441693693</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-4.701019843632491</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4022895198.243169</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001713498331827745</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>12</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.825323448213886</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.8866053223494156</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.825323448213886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5207633698.397485</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.0008853937563511646</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.571710232299028</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8287256267470118</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.571710232299028</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5975533844.77501</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004572193361121454</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>13</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.881635103490835</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8309987069722838</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.881635103490835</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4348065742.251104</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004240306545286824</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>11</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6204651178524454</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3.040220034975108</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8239238173673765</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-3.040220034975108</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>5744620830.384568</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001292720011388768</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>17</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.33321513885031</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8157877588050326</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.33321513885031</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>6616197666.977922</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003910729476212734</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>9</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.333952166966792</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9806476969416681</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.333952166966792</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>7434199948.827751</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.004213704881675484</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>7</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.694859091799493</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9383009220179955</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.694859091799493</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>3865616036.030906</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001151500714038354</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>13</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.547446795350248</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.801344643103989</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.547446795350248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>5431354122.579671</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003242101773710167</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>12</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.4092498030743677</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.843267399947417</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.7040767992230488</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.843267399947417</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>9261324336.200754</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004615219073127853</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>11</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.963227152518193</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8813060274412968</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.963227152518193</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>6719753612.975758</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001585909415639358</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.3733244370724046</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.332218019947567</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.725906800482374</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.332218019947567</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>9016550814.657969</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.00343458154913586</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>10</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.940945613790158</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8862752030970483</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.940945613790158</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>6337357119.758086</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.003328959724551264</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>12</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.892508572482692</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9449681097489774</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.892508572482692</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4145251628.401792</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001318570138804668</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>9</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590732</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.514077736944033</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9332252564871302</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.514077736944033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5270269781.455431</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.003151874342934917</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>8</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.505703741951038</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.841579616869798</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.505703741951038</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6967655571.672969</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.005378431642153045</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>8</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>3.558721587419989</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7689447430072751</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-3.558721587419989</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>4573734494.966679</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001649391416076579</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>11</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.930344526110184</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.232748886012567</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.930344526110184</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>4958270092.869245</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003193907014048141</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.223597267023024</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.009030783376555</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.223597267023024</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>5637572930.184299</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005412312650345182</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>12</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.992565248155608</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.9918292467023158</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.992565248155608</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4086064962.776962</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004199491625603505</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>11</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.85460257522559</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.8881450993468898</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.85460257522559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5465133813.867692</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002173984594846418</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>10</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.265296755963505</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8407286202709667</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.265296755963505</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6292623408.232362</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004151820733213895</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>10</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.261109587702296</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9730548710899478</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.261109587702296</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>5218466450.567724</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001399281343730209</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>9</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.247978892746825</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9113568827378656</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.247978892746825</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>6525299825.336754</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004958117718751578</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>11</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.834206994066924</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9591143077325117</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.834206994066924</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>5412853925.520836</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003698775843213223</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>9</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.34663848233999</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9190700037455287</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-3.34663848233999</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>7823515285.782022</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.002342856836016731</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>13</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900504</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.835962070890877</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9131039329027463</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.835962070890877</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>6121534852.270156</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001156662869153379</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>11</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.21923420536635</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9324579029411877</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.21923420536635</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>10582900307.41295</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004358542425440469</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>11</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.961546598461679</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8097445764616082</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.961546598461679</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>6370740715.386263</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002507589818570968</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
         <v>9</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.144148622759382</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.8979802674528018</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-3.144148622759382</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>7114287982.58834</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003110361984680995</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>6</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.959068800114409</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9525461391000861</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.959068800114409</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5125305794.704753</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.005412988453775238</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>13</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.8514591798827182</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.847924107727144</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.067095439476799</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.847924107727144</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>7963685795.789397</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003716522468091918</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.528009466901988</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.03481575728418</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.528009466901988</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>3713066345.544655</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.005619587648343095</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>14</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.4738925500752354</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.69145422187729</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.7845199476730712</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.69145422187729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>6600571403.753896</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.00158059242770006</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>10</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3.003427565351823</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8407286202709667</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-3.003427565351823</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5218453345.467924</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002790818716383384</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>9</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.242041926905781</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9201666003319159</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.242041926905781</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>6699191884.688329</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004407732576115419</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>12</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.73923566087089</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8326413218578536</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.73923566087089</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>5898759057.559728</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.004022054529911035</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>14</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269525</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.61477063323861</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8638959705775445</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.61477063323861</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>6165021401.812196</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002977621175140102</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>9</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.9011052032701342</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.262700705141008</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.156576238231409</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.262700705141008</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>8355899064.165618</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003590367790878069</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
         <v>12</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.776706539401886</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.7954775631138242</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.776706539401886</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>7297762884.251222</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002235810426177028</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>14</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.475574998713503</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.789484206620473</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.475574998713503</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>6288263658.228121</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003226692484446252</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>10</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.033126584763665</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8828550469244346</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-3.033126584763665</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4968822501.520411</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003609696006155768</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>11</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677434</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.814497884551298</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8184158986604034</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.814497884551298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5912632027.806554</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004655434360509783</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>15</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.212796759516449</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9078874111739365</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.212796759516449</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4961558611.871232</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003788175948060474</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>11</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.517698010245212</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8545827055515465</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.517698010245212</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>7076888139.863387</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.005513589337543165</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>13</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.678017406156139</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.8884745238258067</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.678017406156139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3424878035.604002</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.005210398427765471</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>6</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>3.870502116545223</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.914741836125826</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-3.870502116545223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>5291124645.08388</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004833197295030645</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>10</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3.521389855322766</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.9986282074383902</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-3.521389855322766</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5538975240.748433</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003189563138249773</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>9</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.263289357755195</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9058073000399876</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.263289357755195</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>7530511661.03689</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004360477212580105</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>7</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.722599711677244</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8874858835534812</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.722599711677244</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8170251839.744159</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002474534065906548</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>12</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5736051071689943</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.685971884937046</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.6971253551018616</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.685971884937046</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>6258962803.417318</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001006325713741288</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>7</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.707395356471684</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9741577079887341</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.707395356471684</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>8146521430.516874</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003235794583465401</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>6</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4.727736806352136</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9058793639917688</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-4.727736806352136</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3854468556.397694</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.004066352464253746</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>7</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.587626152306018</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8115106630753378</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-3.587626152306018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>7778200924.339358</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.00228004487684933</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>12</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.816123473812497</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.021876838010221</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.816123473812497</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>6401096417.183399</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.00133700093653176</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>8</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.393001616611719</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9507342467508458</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.393001616611719</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5724713756.866342</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004858033996033887</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>9</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.163145495755119</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8740787427464565</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.163145495755119</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6655360795.42836</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003479852471801172</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>13</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.798914925777185</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8322113623180096</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.798914925777185</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6817885955.636338</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.001883983008700092</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>13</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.805032130442717</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.8963845623160969</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.805032130442717</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>4999342366.451298</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005048409997604197</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>6</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.950654378275232</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9889062986300134</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.950654378275232</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5792655756.790224</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003162632259685467</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>14</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.660345567558546</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.8720289857861632</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.660345567558546</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>7863469624.621985</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.001718931605742785</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.834199078838299</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9641213894069383</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.834199078838299</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>5463122135.489513</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002546328852655591</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>13</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330155</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.013028958433842</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9424516475583136</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.013028958433842</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>7620900540.498279</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.00489089600498981</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>7</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.2708085753321782</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.560695889811729</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.5919230419594633</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.560695889811729</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>6880351787.943591</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.005533702178885718</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>11</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.8876889321638315</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>3.015533110893434</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.128926973030556</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-3.015533110893434</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>10216549110.94065</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002506239511185953</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>17</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.328027968350768</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.7778191627675759</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.328027968350768</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>7541454341.42505</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004167238142798477</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>14</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.596938328314417</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9182197318160911</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.596938328314417</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4654239947.573127</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002504537800800745</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>14</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.564283646270035</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8800868457841936</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.564283646270035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>7654696038.540305</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002160383901309906</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>12</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.082843105481029</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9650315225383861</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.082843105481029</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>3574036100.087062</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001350272644989438</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>16</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.3630990234291767</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.451151745815142</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.6472290052736596</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.451151745815142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>7037743695.923347</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004750315395621665</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>11</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.869817131880902</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8245538709435929</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.869817131880902</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5473176086.341406</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.005404107296243446</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>10</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.176325531785072</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.93175997953866</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.176325531785072</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>5171344493.785626</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003400780537317238</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
         <v>10</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>3.000246005284584</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9295928454472447</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-3.000246005284584</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>7929827329.575677</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004700047339463533</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>6</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719719</v>
-      </c>
-      <c r="L91" t="n">
-        <v>3.778318612109334</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8255006250612142</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-3.778318612109334</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>3573369192.161319</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003596666025194499</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>10</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.144404805322321</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.023562802778291</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.144404805322321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>6397684228.48575</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.00184599954283209</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>13</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.733085240259878</v>
-      </c>
-      <c r="M93" t="n">
-        <v>-0.4952605565436486</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.733085240259878</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>6108538124.630248</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001480275675901301</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>6</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>3.963793468554457</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.019040080133161</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-3.963793468554457</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>6953468100.307734</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002334190877172536</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>8</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.345628170819815</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9172631519447533</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.345628170819815</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>7787861266.2594</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002267781281707115</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>15</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.591775224112266</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.8899377180806981</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.591775224112266</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6640804110.277514</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004473070938261442</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>10</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>3.211925581633746</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8782741209631465</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-3.211925581633746</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>8765998090.545773</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.005077347514571464</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>8</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.228314772923223</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8710216794491706</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.228314772923223</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3667320407.200786</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005190862721781712</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>13</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.8751187371622304</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.764436137290708</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.114665972363983</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.764436137290708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4711015137.796065</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.003689558775384781</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5943679366767612</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.343429785525221</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.831938126832759</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.343429785525221</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>6534841258.873903</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001072454658304744</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>14</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.9409955765955647</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.90837258265968</v>
-      </c>
-      <c r="M101" t="n">
-        <v>1.13477336643309</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.90837258265968</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_53.xlsx
+++ b/output/fit_clients/fit_round_53.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -483,19 +493,25 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>8903248619.130224</v>
+        <v>2179397232.142759</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003639012078689339</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>13</v>
+        <v>0.08480272412927591</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04445847556875486</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1089698635.760397</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>4734533011.75237</v>
+        <v>2186016546.501915</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006209697319139512</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>13</v>
+        <v>0.1504104916939463</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0466974842037723</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1093008341.991064</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4396303454.947659</v>
+        <v>4062935218.543456</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002542948185715284</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12</v>
+        <v>0.1602376622379585</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03234254842564588</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>19</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2031467627.774708</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>535</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4102174023.437682</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1032798937969253</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04200979828995017</v>
+      </c>
+      <c r="H5" t="b">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
-        <v>494</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3703065138.867953</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.004482849914222787</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+      <c r="I5" t="n">
+        <v>19</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2051087008.518131</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>4911894822.036698</v>
+        <v>1774347708.647893</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002147562364538968</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
+        <v>0.09113223696292884</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05419574212501699</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>887173908.206202</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>6249813058.162574</v>
+        <v>2138290379.61641</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001130367239881177</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
+        <v>0.06717773486111134</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0461458245718798</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>17</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1069145237.507936</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>5011512401.737561</v>
+        <v>3146155078.79625</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00289318263372822</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>15</v>
+        <v>0.2012204510763435</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02416599832283635</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>17</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1573077611.707914</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6747005947.674479</v>
+        <v>2211573649.100696</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00370903970214367</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>16</v>
+        <v>0.1671401855413953</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03656025486749791</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1105786821.669775</v>
       </c>
     </row>
     <row r="10">
@@ -707,19 +765,25 @@
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3720096681.439837</v>
+        <v>4333277303.778506</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003582949595453238</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1361336561566591</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04316680876655066</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>22</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2166638699.459425</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4595266114.1531</v>
+        <v>3315266930.076649</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001214511642184679</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1374988276741923</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04146887609614163</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>22</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1657633429.837636</v>
       </c>
     </row>
     <row r="12">
@@ -763,19 +833,25 @@
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>6131692622.016586</v>
+        <v>2346796702.426381</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001402970212498616</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>15</v>
+        <v>0.1879558143175971</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04753705999600846</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>18</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1173398309.290713</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4116166406.829245</v>
+        <v>5115722269.065166</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003712906053223964</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>11</v>
+        <v>0.07824723927645065</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02529309753725888</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>18</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2557861132.66229</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>8973974110.959263</v>
+        <v>2895489642.854409</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003144490862690591</v>
-      </c>
-      <c r="G14" t="b">
+        <v>0.184768623191615</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.02958743072341516</v>
+      </c>
+      <c r="H14" t="b">
         <v>1</v>
       </c>
-      <c r="H14" t="n">
-        <v>12</v>
+      <c r="I14" t="n">
+        <v>16</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1447744863.324884</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>5732406135.516874</v>
+        <v>1425410961.565141</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004938643064834968</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>16</v>
+        <v>0.07921280085548446</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04083662412721375</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>712705549.2436692</v>
       </c>
     </row>
     <row r="16">
@@ -875,19 +969,25 @@
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>5394910020.760063</v>
+        <v>1888816301.630536</v>
       </c>
       <c r="F16" t="n">
-        <v>0.005641453561810094</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>16</v>
+        <v>0.07267271502218256</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04106705039261779</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>944408236.1018093</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6541753772.460135</v>
+        <v>4403679818.67346</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003298905879271704</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>11</v>
+        <v>0.1484731722295177</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04867003725582884</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>15</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2201839923.85317</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>6207939920.334041</v>
+        <v>3864368698.01399</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001180728878651432</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>15</v>
+        <v>0.1762355174912468</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02983145326457354</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>17</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1932184316.56436</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4022895198.243169</v>
+        <v>838972853.1711272</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001713498331827745</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1612871410462519</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01731305559502615</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>419486416.4998462</v>
       </c>
     </row>
     <row r="20">
@@ -987,19 +1105,25 @@
         <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5207633698.397485</v>
+        <v>2010476267.651312</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0008853937563511646</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
+        <v>0.1000691811737367</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02422011699363184</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1005238158.937761</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>5975533844.77501</v>
+        <v>2411893336.572372</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004572193361121454</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
+        <v>0.06666804909209226</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04413265575734276</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1205946664.688101</v>
       </c>
     </row>
     <row r="22">
@@ -1043,19 +1173,25 @@
         <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4348065742.251104</v>
+        <v>2505180289.387517</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004240306545286824</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
+        <v>0.09565945506569953</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05706948767716013</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>14</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1252590235.732569</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>5744620830.384568</v>
+        <v>1150149380.859977</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001292720011388768</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
+        <v>0.1790505677391514</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.03504299169396598</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>575074735.1816815</v>
       </c>
     </row>
     <row r="24">
@@ -1099,19 +1241,25 @@
         <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>6616197666.977922</v>
+        <v>3280934777.85672</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003910729476212734</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
+        <v>0.105099107605343</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03600038546127805</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
         <v>15</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1640467405.166284</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>7434199948.827751</v>
+        <v>1146055609.609647</v>
       </c>
       <c r="F25" t="n">
-        <v>0.004213704881675484</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>11</v>
+        <v>0.1104996510802577</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.03035597545939498</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>573027835.0573677</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>3865616036.030906</v>
+        <v>1276517441.669581</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001151500714038354</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.0813995559142741</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03661035881366292</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>638258760.4869457</v>
       </c>
     </row>
     <row r="27">
@@ -1183,19 +1343,25 @@
         <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>5431354122.579671</v>
+        <v>4341356495.315549</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003242101773710167</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>15</v>
+        <v>0.1526051600713607</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0243930866339245</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>12</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2170678240.706458</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>9261324336.200754</v>
+        <v>3831855136.656918</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004615219073127853</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>13</v>
+        <v>0.1004773584867152</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03946995684758834</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>18</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1915927651.645293</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>6719753612.975758</v>
+        <v>4387435060.841052</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001585909415639358</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>13</v>
+        <v>0.1027364544579942</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03579276356289216</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>24</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2193717520.311065</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>9016550814.657969</v>
+        <v>1715504322.950487</v>
       </c>
       <c r="F30" t="n">
-        <v>0.00343458154913586</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>17</v>
+        <v>0.0916682332424013</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.033966871407044</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>857752166.3973131</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>6337357119.758086</v>
+        <v>1111975905.06937</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003328959724551264</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>11</v>
+        <v>0.09555576377243477</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03690261403890403</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>555987924.5774454</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4145251628.401792</v>
+        <v>1559334206.543044</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001318570138804668</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.08618134484255272</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03427132859241341</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>779667183.78043</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5270269781.455431</v>
+        <v>1963557524.784146</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003151874342934917</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>11</v>
+        <v>0.1277925589377098</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05240504575063667</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>14</v>
+      </c>
+      <c r="J33" t="n">
+        <v>981778846.1678376</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6967655571.672969</v>
+        <v>1007051203.104237</v>
       </c>
       <c r="F34" t="n">
-        <v>0.005378431642153045</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>16</v>
+        <v>0.08438639540792287</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02640084931257251</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>503525638.1371031</v>
       </c>
     </row>
     <row r="35">
@@ -1407,19 +1615,25 @@
         <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>4573734494.966679</v>
+        <v>862203362.7865094</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001649391416076579</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>13</v>
+        <v>0.09389710340398874</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0307466678925291</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>431101730.0842301</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>4958270092.869245</v>
+        <v>2285668718.063934</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003193907014048141</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>15</v>
+        <v>0.1181522387039727</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02132846942627631</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>13</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1142834398.06018</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>5637572930.184299</v>
+        <v>2080861079.177715</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005412312650345182</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
+        <v>0.1114119032582354</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.031091802444059</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>15</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1040430577.864373</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4086064962.776962</v>
+        <v>1600773966.680636</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004199491625603505</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1096552743768611</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0336175412787408</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>800387018.2192392</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5465133813.867692</v>
+        <v>1945269109.908869</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002173984594846418</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>5</v>
+        <v>0.1222968600219329</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02422447299264947</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>972634557.6701342</v>
       </c>
     </row>
     <row r="40">
@@ -1547,19 +1785,25 @@
         <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6292623408.232362</v>
+        <v>1096683951.102315</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004151820733213895</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>14</v>
+        <v>0.1399587207858609</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.03897013779585592</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>548342042.6042393</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>5218466450.567724</v>
+        <v>1852622972.032267</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001399281343730209</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
+        <v>0.1368082904097215</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03400820784997386</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>15</v>
+      </c>
+      <c r="J41" t="n">
+        <v>926311574.4779016</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>6525299825.336754</v>
+        <v>2751042038.68235</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004958117718751578</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>12</v>
+        <v>0.1075456867163998</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03936547425363334</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>18</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1375520962.484089</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>5412853925.520836</v>
+        <v>1912423259.417633</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003698775843213223</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>12</v>
+        <v>0.1934425759050602</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0213596565287434</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>18</v>
+      </c>
+      <c r="J43" t="n">
+        <v>956211737.2877327</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>7823515285.782022</v>
+        <v>1524020696.625572</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002342856836016731</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>14</v>
+        <v>0.09220357702139029</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03465518388322165</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>762010359.5708795</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>6121534852.270156</v>
+        <v>1635767610.793637</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001156662869153379</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.149061120496323</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.05240041079080199</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>817883759.472294</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>10582900307.41295</v>
+        <v>5043402258.434121</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004358542425440469</v>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>8</v>
+        <v>0.1541897430701731</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.03795806930213427</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>19</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2521701158.363184</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>6370740715.386263</v>
+        <v>4720392440.114781</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002507589818570968</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>9</v>
+        <v>0.1512001323752088</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05283783893813212</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>14</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2360196259.925924</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>7114287982.58834</v>
+        <v>3340543183.94593</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003110361984680995</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>10</v>
+        <v>0.07956456502345524</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02958693832833662</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>18</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1670271664.534693</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5125305794.704753</v>
+        <v>1457584587.022566</v>
       </c>
       <c r="F49" t="n">
-        <v>0.005412988453775238</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1715092620354963</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03570489422235758</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>728792331.9921933</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>7963685795.789397</v>
+        <v>2568106414.729407</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003716522468091918</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>15</v>
+        <v>0.1137334689425587</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.05116035804841058</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>18</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1284053297.816314</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>3713066345.544655</v>
+        <v>957002489.3359596</v>
       </c>
       <c r="F51" t="n">
-        <v>0.005619587648343095</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.177970534843185</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0506198482604311</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>478501335.4632711</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>6600571403.753896</v>
+        <v>4932864734.434522</v>
       </c>
       <c r="F52" t="n">
-        <v>0.00158059242770006</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="n">
-        <v>12</v>
+        <v>0.1182565437989192</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.03853382837141037</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>22</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2466432368.670658</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5218453345.467924</v>
+        <v>2572293819.005919</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002790818716383384</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>10</v>
+        <v>0.1389727980864444</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02907832219758859</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>15</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1286146971.321813</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>6699191884.688329</v>
+        <v>4633458766.634698</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004407732576115419</v>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="n">
-        <v>13</v>
+        <v>0.1342486767450474</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04338833380608694</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>17</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2316729496.968403</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>5898759057.559728</v>
+        <v>4205003378.98711</v>
       </c>
       <c r="F55" t="n">
-        <v>0.004022054529911035</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>17</v>
+        <v>0.1601231768979832</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02914393180186196</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>14</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2102501673.322663</v>
       </c>
     </row>
     <row r="56">
@@ -1995,19 +2329,25 @@
         <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>6165021401.812196</v>
+        <v>1787816750.466486</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002977621175140102</v>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="n">
-        <v>7</v>
+        <v>0.1452798566855508</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04143502733866813</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>893908374.759877</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>8355899064.165618</v>
+        <v>4016140015.674578</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003590367790878069</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>12</v>
+        <v>0.1580398287596063</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01898896265922539</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>17</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2008070097.407584</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>7297762884.251222</v>
+        <v>1598288169.158922</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002235810426177028</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>12</v>
+        <v>0.2010512323664277</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03402392672227014</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>799144106.6405846</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>6288263658.228121</v>
+        <v>3463965475.221506</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003226692484446252</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>6</v>
+        <v>0.1291416536128582</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04988792502068872</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>14</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1731982739.281219</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4968822501.520411</v>
+        <v>3572006740.043614</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003609696006155768</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1568358771837854</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02025766220052614</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>16</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1786003500.20653</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5912632027.806554</v>
+        <v>2316522082.806201</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004655434360509783</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>12</v>
+        <v>0.123082265077207</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02975713080525419</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>18</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1158261086.202989</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4961558611.871232</v>
+        <v>1812238321.448647</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003788175948060474</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>10</v>
+        <v>0.1268873986671362</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03091399376534255</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>906119190.4691805</v>
       </c>
     </row>
     <row r="63">
@@ -2191,19 +2567,25 @@
         <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>7076888139.863387</v>
+        <v>5146653285.015678</v>
       </c>
       <c r="F63" t="n">
-        <v>0.005513589337543165</v>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>12</v>
+        <v>0.1028094720270632</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.02886490864365824</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>15</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2573326653.600162</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3424878035.604002</v>
+        <v>5058088898.4853</v>
       </c>
       <c r="F64" t="n">
-        <v>0.005210398427765471</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1568095892976442</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03040050723783455</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>16</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2529044559.400374</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5291124645.08388</v>
+        <v>5489485069.382114</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004833197295030645</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>13</v>
+        <v>0.1503126406335282</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0225730404220954</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>19</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2744742464.287892</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5538975240.748433</v>
+        <v>5096657863.580827</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003189563138249773</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>12</v>
+        <v>0.1113290675810265</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0478639047486917</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>16</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2548328963.992174</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>7530511661.03689</v>
+        <v>2432354663.787297</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004360477212580105</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>10</v>
+        <v>0.08315888947710055</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03595370042817708</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>17</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1216177398.095924</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8170251839.744159</v>
+        <v>4895199493.143673</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002474534065906548</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>11</v>
+        <v>0.1020550948727543</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0385162277526623</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>17</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2447599796.482916</v>
       </c>
     </row>
     <row r="69">
@@ -2359,19 +2771,25 @@
         <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>6258962803.417318</v>
+        <v>1763677264.983044</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001006325713741288</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>11</v>
+        <v>0.1430819340852621</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05731734800998088</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>881838606.7742572</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>8146521430.516874</v>
+        <v>3713344176.994527</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003235794583465401</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>13</v>
+        <v>0.06704883901564199</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03890947044292051</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>15</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1856672111.750227</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3854468556.397694</v>
+        <v>4388959718.355858</v>
       </c>
       <c r="F71" t="n">
-        <v>0.004066352464253746</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1862789678475367</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.03358652689173548</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>19</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2194479919.13371</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>7778200924.339358</v>
+        <v>1685937115.560051</v>
       </c>
       <c r="F72" t="n">
-        <v>0.00228004487684933</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>11</v>
+        <v>0.1020857147710927</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.05304908011330802</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>842968554.6314698</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
+        <v>3</v>
+      </c>
+      <c r="D73" t="n">
+        <v>543</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3039391964.501725</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.08883455598768868</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03409435907983328</v>
+      </c>
+      <c r="H73" t="b">
         <v>1</v>
       </c>
-      <c r="D73" t="n">
-        <v>480</v>
-      </c>
-      <c r="E73" t="n">
-        <v>6401096417.183399</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0.00133700093653176</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>12</v>
+      <c r="I73" t="n">
+        <v>20</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1519695974.501632</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5724713756.866342</v>
+        <v>3941207564.081104</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004858033996033887</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>11</v>
+        <v>0.1193034842303987</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0329279625859011</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>19</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1970603765.966473</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6655360795.42836</v>
+        <v>2047096106.392524</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003479852471801172</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>10</v>
+        <v>0.1380958169257224</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02555535085576449</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1023548012.805288</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6817885955.636338</v>
+        <v>3816792965.179859</v>
       </c>
       <c r="F76" t="n">
-        <v>0.001883983008700092</v>
-      </c>
-      <c r="G76" t="b">
+        <v>0.09607836233402454</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02337169003992965</v>
+      </c>
+      <c r="H76" t="b">
         <v>1</v>
       </c>
-      <c r="H76" t="n">
-        <v>10</v>
+      <c r="I76" t="n">
+        <v>11</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1908396459.462952</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>4999342366.451298</v>
+        <v>1556376304.013078</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005048409997604197</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>20</v>
+        <v>0.1698408047250883</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02652862862842146</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>778188147.8666837</v>
       </c>
     </row>
     <row r="78">
@@ -2611,19 +3077,25 @@
         <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>5792655756.790224</v>
+        <v>4345349642.217775</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003162632259685467</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>11</v>
+        <v>0.08652868970297486</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.04341933535547072</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>18</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2172674761.968982</v>
       </c>
     </row>
     <row r="79">
@@ -2639,19 +3111,25 @@
         <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>7863469624.621985</v>
+        <v>1457967106.819692</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001718931605742785</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>11</v>
+        <v>0.1474261809895243</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03780791256640917</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>728983580.1034575</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5463122135.489513</v>
+        <v>5013061158.248248</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002546328852655591</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>17</v>
+        <v>0.08394027319802976</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.0348954140176729</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>11</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2506530628.848009</v>
       </c>
     </row>
     <row r="81">
@@ -2695,19 +3179,25 @@
         <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>7620900540.498279</v>
+        <v>4753046551.945137</v>
       </c>
       <c r="F81" t="n">
-        <v>0.00489089600498981</v>
-      </c>
-      <c r="G81" t="b">
+        <v>0.0938924062785944</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.025766658512512</v>
+      </c>
+      <c r="H81" t="b">
         <v>1</v>
       </c>
-      <c r="H81" t="n">
-        <v>9</v>
+      <c r="I81" t="n">
+        <v>11</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2376523267.055838</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>6880351787.943591</v>
+        <v>5650633612.99417</v>
       </c>
       <c r="F82" t="n">
-        <v>0.005533702178885718</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>9</v>
+        <v>0.1709529759083911</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02557168153920789</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>20</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2825316753.989257</v>
       </c>
     </row>
     <row r="83">
@@ -2751,19 +3247,25 @@
         <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>10216549110.94065</v>
+        <v>2082463684.519586</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002506239511185953</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>16</v>
+        <v>0.135379826758642</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03806662481327168</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1041231837.708965</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>7541454341.42505</v>
+        <v>1617765459.450055</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004167238142798477</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>15</v>
+        <v>0.08129856391796245</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.0515765980524515</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>808882790.5775579</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4654239947.573127</v>
+        <v>3183885065.365567</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002504537800800745</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1696880254779378</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.05527566988831568</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>20</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1591942613.007477</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>7654696038.540305</v>
+        <v>2378932087.920862</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002160383901309906</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>14</v>
+        <v>0.1493135630782546</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02735858875038774</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>5</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1189466124.122928</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>3574036100.087062</v>
+        <v>1144519454.781074</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001350272644989438</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1363511222925103</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03696680955213973</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>572259768.6413792</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>7037743695.923347</v>
+        <v>3239461955.674316</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004750315395621665</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>13</v>
+        <v>0.1298249253579324</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03385194029965028</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>20</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1619731031.794513</v>
       </c>
     </row>
     <row r="89">
@@ -2919,19 +3451,25 @@
         <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5473176086.341406</v>
+        <v>2824343388.13989</v>
       </c>
       <c r="F89" t="n">
-        <v>0.005404107296243446</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>12</v>
+        <v>0.1484406145796901</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.02989289973321662</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>18</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1412171744.927659</v>
       </c>
     </row>
     <row r="90">
@@ -2947,19 +3485,25 @@
         <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>5171344493.785626</v>
+        <v>1805720794.778492</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003400780537317238</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>10</v>
+        <v>0.1371233477092743</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04868111648852386</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>902860431.9778514</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>7929827329.575677</v>
+        <v>2040115473.398013</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004700047339463533</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>16</v>
+        <v>0.1611056345181712</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.05195869185328892</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1020057703.491689</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3573369192.161319</v>
+        <v>2335829176.38925</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003596666025194499</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.09685404358814904</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03601443774130991</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>13</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1167914559.612835</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
+        <v>4</v>
+      </c>
+      <c r="D93" t="n">
+        <v>478</v>
+      </c>
+      <c r="E93" t="n">
+        <v>4714038146.10441</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.1063974001652009</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04373125514419596</v>
+      </c>
+      <c r="H93" t="b">
         <v>1</v>
       </c>
-      <c r="D93" t="n">
-        <v>588</v>
-      </c>
-      <c r="E93" t="n">
-        <v>6397684228.48575</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.00184599954283209</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>19</v>
+      <c r="I93" t="n">
+        <v>15</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2357019027.386421</v>
       </c>
     </row>
     <row r="94">
@@ -3059,19 +3621,25 @@
         <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>6108538124.630248</v>
+        <v>1886057159.128757</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001480275675901301</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>16</v>
+        <v>0.1502448203080163</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03978790611388589</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>943028562.9690679</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>6953468100.307734</v>
+        <v>3138260483.748102</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002334190877172536</v>
-      </c>
-      <c r="G95" t="b">
+        <v>0.08838270848649754</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.05272136970398613</v>
+      </c>
+      <c r="H95" t="b">
         <v>1</v>
       </c>
-      <c r="H95" t="n">
-        <v>13</v>
+      <c r="I95" t="n">
+        <v>12</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1569130231.47102</v>
       </c>
     </row>
     <row r="96">
@@ -3115,19 +3689,25 @@
         <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>7787861266.2594</v>
+        <v>1529254611.556417</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002267781281707115</v>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>14</v>
+        <v>0.09963985548649472</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03477519067339414</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>764627342.8604516</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6640804110.277514</v>
+        <v>5054237637.137823</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004473070938261442</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>14</v>
+        <v>0.1078869266473605</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02548942875039203</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>17</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2527118959.595563</v>
       </c>
     </row>
     <row r="98">
@@ -3171,19 +3757,25 @@
         <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>8765998090.545773</v>
+        <v>3695930581.713267</v>
       </c>
       <c r="F98" t="n">
-        <v>0.005077347514571464</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>20</v>
+        <v>0.09401021653540276</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.03131358324763208</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>15</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1847965322.62008</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3667320407.200786</v>
+        <v>3189358066.619664</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005190862721781712</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1303438577615874</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02818526780960972</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>16</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1594679032.911625</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4711015137.796065</v>
+        <v>4407327441.682697</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003689558775384781</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>5</v>
+        <v>0.1723207044495524</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02757719462824402</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>16</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2203663823.889637</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
+        <v>4</v>
+      </c>
+      <c r="D101" t="n">
+        <v>584</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3409556779.968884</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.1344581970519375</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05724631299584666</v>
+      </c>
+      <c r="H101" t="b">
         <v>1</v>
       </c>
-      <c r="D101" t="n">
-        <v>573</v>
-      </c>
-      <c r="E101" t="n">
-        <v>6534841258.873903</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.001072454658304744</v>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="n">
-        <v>17</v>
+      <c r="I101" t="n">
+        <v>22</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1704778533.046664</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_53.xlsx
+++ b/output/fit_clients/fit_round_53.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2179397232.142759</v>
+        <v>2092026014.307731</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08480272412927591</v>
+        <v>0.08363976355887515</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04445847556875486</v>
+        <v>0.03841980041060359</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1089698635.760397</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2186016546.501915</v>
+        <v>1639705860.764769</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1504104916939463</v>
+        <v>0.1307422238113419</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0466974842037723</v>
+        <v>0.03311635670896589</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
         <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1093008341.991064</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4062935218.543456</v>
+        <v>4172271632.859532</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1602376622379585</v>
+        <v>0.1124492722373122</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03234254842564588</v>
+        <v>0.0302936944026541</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>19</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2031467627.774708</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4102174023.437682</v>
+        <v>3205557195.107822</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1032798937969253</v>
+        <v>0.08575815338737609</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04200979828995017</v>
+        <v>0.04010638318863616</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>19</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2051087008.518131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1774347708.647893</v>
+        <v>1897264486.248932</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09113223696292884</v>
+        <v>0.139368270433775</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05419574212501699</v>
+        <v>0.0558223158998491</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>887173908.206202</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2138290379.61641</v>
+        <v>2910420842.300974</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06717773486111134</v>
+        <v>0.09191756797216569</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0461458245718798</v>
+        <v>0.03365770731924639</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>17</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1069145237.507936</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3146155078.79625</v>
+        <v>3758910337.768041</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2012204510763435</v>
+        <v>0.1611163423457749</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02416599832283635</v>
+        <v>0.0239261960084735</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>17</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1573077611.707914</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2211573649.100696</v>
+        <v>2289234540.354018</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1671401855413953</v>
+        <v>0.1870892826973031</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03656025486749791</v>
+        <v>0.02599137202518779</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1105786821.669775</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4333277303.778506</v>
+        <v>5598070554.145294</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1361336561566591</v>
+        <v>0.1851934502059792</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04316680876655066</v>
+        <v>0.04359701131185438</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>22</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2166638699.459425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3315266930.076649</v>
+        <v>4042136264.014103</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1374988276741923</v>
+        <v>0.1207587083359979</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04146887609614163</v>
+        <v>0.03468807890570755</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>22</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1657633429.837636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2346796702.426381</v>
+        <v>2822272918.931174</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1879558143175971</v>
+        <v>0.1702237851460095</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04753705999600846</v>
+        <v>0.03451242573351845</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>18</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1173398309.290713</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5115722269.065166</v>
+        <v>3835247187.987134</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07824723927645065</v>
+        <v>0.06628145382626849</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02529309753725888</v>
+        <v>0.02282211267557791</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>18</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2557861132.66229</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2895489642.854409</v>
+        <v>3561671195.020678</v>
       </c>
       <c r="F14" t="n">
-        <v>0.184768623191615</v>
+        <v>0.1691590572087308</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02958743072341516</v>
+        <v>0.03708897558266658</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>16</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1447744863.324884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1425410961.565141</v>
+        <v>1363873644.074746</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07921280085548446</v>
+        <v>0.0667973040291495</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04083662412721375</v>
+        <v>0.04236433410631999</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>712705549.2436692</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1888816301.630536</v>
+        <v>1927266983.080734</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07267271502218256</v>
+        <v>0.1041836006830184</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04106705039261779</v>
+        <v>0.03139306589798868</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>8</v>
-      </c>
-      <c r="J16" t="n">
-        <v>944408236.1018093</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4403679818.67346</v>
+        <v>3965491569.848939</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1484731722295177</v>
+        <v>0.1171542994046123</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04867003725582884</v>
+        <v>0.04122409504571722</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>15</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2201839923.85317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3864368698.01399</v>
+        <v>3915299405.501215</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1762355174912468</v>
+        <v>0.1340050472628098</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02983145326457354</v>
+        <v>0.02530712651406703</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>17</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1932184316.56436</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>838972853.1711272</v>
+        <v>859033312.0959003</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1612871410462519</v>
+        <v>0.1913545898228378</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01731305559502615</v>
+        <v>0.02117132545221814</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>419486416.4998462</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2010476267.651312</v>
+        <v>2357075632.187675</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1000691811737367</v>
+        <v>0.1138227802387175</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02422011699363184</v>
+        <v>0.02683096893549188</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1005238158.937761</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2411893336.572372</v>
+        <v>1932453977.695356</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06666804909209226</v>
+        <v>0.09349062102360135</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04413265575734276</v>
+        <v>0.03122301263838945</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>6</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1205946664.688101</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2505180289.387517</v>
+        <v>3772798754.130639</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09565945506569953</v>
+        <v>0.1346425580553008</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05706948767716013</v>
+        <v>0.0461366121082611</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>14</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1252590235.732569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1150149380.859977</v>
+        <v>1415244787.985763</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1790505677391514</v>
+        <v>0.1433389634326173</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03504299169396598</v>
+        <v>0.04665274181638154</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>575074735.1816815</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3280934777.85672</v>
+        <v>3213046295.095896</v>
       </c>
       <c r="F24" t="n">
-        <v>0.105099107605343</v>
+        <v>0.1026730792621778</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03600038546127805</v>
+        <v>0.03011903936624288</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>15</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1640467405.166284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1146055609.609647</v>
+        <v>1283138335.342301</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1104996510802577</v>
+        <v>0.0744470757746953</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03035597545939498</v>
+        <v>0.02412778052441554</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>573027835.0573677</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1276517441.669581</v>
+        <v>1253325230.958314</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0813995559142741</v>
+        <v>0.1071991185050122</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03661035881366292</v>
+        <v>0.03305626781150003</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>638258760.4869457</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4341356495.315549</v>
+        <v>4530224621.656052</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1526051600713607</v>
+        <v>0.1098599033312343</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0243930866339245</v>
+        <v>0.01677136017354494</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>12</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2170678240.706458</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3831855136.656918</v>
+        <v>3780350877.136755</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1004773584867152</v>
+        <v>0.09204990536319865</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03946995684758834</v>
+        <v>0.0479412636741271</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>18</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1915927651.645293</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4387435060.841052</v>
+        <v>4846332399.268221</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1027364544579942</v>
+        <v>0.1080114041424278</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03579276356289216</v>
+        <v>0.0387239495558205</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>24</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2193717520.311065</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1715504322.950487</v>
+        <v>1724364489.421832</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0916682332424013</v>
+        <v>0.1374249585069134</v>
       </c>
       <c r="G30" t="n">
-        <v>0.033966871407044</v>
+        <v>0.02963618863646151</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>857752166.3973131</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1111975905.06937</v>
+        <v>1120133457.595695</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09555576377243477</v>
+        <v>0.09663822085321641</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03690261403890403</v>
+        <v>0.0415118144861487</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>555987924.5774454</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1559334206.543044</v>
+        <v>1811087711.39389</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08618134484255272</v>
+        <v>0.1118077650435828</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03427132859241341</v>
+        <v>0.03564841809738859</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>779667183.78043</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1963557524.784146</v>
+        <v>2020383712.03934</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1277925589377098</v>
+        <v>0.1764206653534464</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05240504575063667</v>
+        <v>0.04792605665791889</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>14</v>
-      </c>
-      <c r="J33" t="n">
-        <v>981778846.1678376</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1007051203.104237</v>
+        <v>1460279202.385825</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08438639540792287</v>
+        <v>0.1129402237267888</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02640084931257251</v>
+        <v>0.02534775469111798</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>503525638.1371031</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>862203362.7865094</v>
+        <v>1278816455.678403</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09389710340398874</v>
+        <v>0.1006567470037544</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0307466678925291</v>
+        <v>0.03816069194367987</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>431101730.0842301</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2285668718.063934</v>
+        <v>2174031273.780374</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1181522387039727</v>
+        <v>0.1709466362481394</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02132846942627631</v>
+        <v>0.02867774073657988</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>13</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1142834398.06018</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2080861079.177715</v>
+        <v>1869960873.954305</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1114119032582354</v>
+        <v>0.1026153263670208</v>
       </c>
       <c r="G37" t="n">
-        <v>0.031091802444059</v>
+        <v>0.02822421149842202</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>15</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1040430577.864373</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1600773966.680636</v>
+        <v>1872311068.87294</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1096552743768611</v>
+        <v>0.1125544968648698</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0336175412787408</v>
+        <v>0.03455816082542353</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>800387018.2192392</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1945269109.908869</v>
+        <v>1722040623.16127</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1222968600219329</v>
+        <v>0.1529374226470183</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02422447299264947</v>
+        <v>0.0231148660784431</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>972634557.6701342</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1096683951.102315</v>
+        <v>1761668445.97193</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1399587207858609</v>
+        <v>0.1400985733724218</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03897013779585592</v>
+        <v>0.04681700382307009</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>548342042.6042393</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1852622972.032267</v>
+        <v>2389866821.780214</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1368082904097215</v>
+        <v>0.1212062143126646</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03400820784997386</v>
+        <v>0.032342215846993</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>15</v>
-      </c>
-      <c r="J41" t="n">
-        <v>926311574.4779016</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2751042038.68235</v>
+        <v>3529515051.418569</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1075456867163998</v>
+        <v>0.1189268825161939</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03936547425363334</v>
+        <v>0.03352621394288955</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>18</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1375520962.484089</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1912423259.417633</v>
+        <v>2905454270.517212</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1934425759050602</v>
+        <v>0.1789646543540848</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0213596565287434</v>
+        <v>0.01886231012324819</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>18</v>
-      </c>
-      <c r="J43" t="n">
-        <v>956211737.2877327</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1524020696.625572</v>
+        <v>1712017813.612802</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09220357702139029</v>
+        <v>0.1008766656712598</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03465518388322165</v>
+        <v>0.03505593788115808</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>762010359.5708795</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1635767610.793637</v>
+        <v>1623580148.379274</v>
       </c>
       <c r="F45" t="n">
-        <v>0.149061120496323</v>
+        <v>0.1562465564597211</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05240041079080199</v>
+        <v>0.03882675850156484</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>817883759.472294</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5043402258.434121</v>
+        <v>3825466896.392663</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1541897430701731</v>
+        <v>0.1462143680896515</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03795806930213427</v>
+        <v>0.04878545142115279</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>19</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2521701158.363184</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4720392440.114781</v>
+        <v>3724348429.247368</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1512001323752088</v>
+        <v>0.1303192328067244</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05283783893813212</v>
+        <v>0.05382305694144909</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>14</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2360196259.925924</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3340543183.94593</v>
+        <v>4255774480.582999</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07956456502345524</v>
+        <v>0.08946290891279503</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02958693832833662</v>
+        <v>0.0340107023956226</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>18</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1670271664.534693</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1457584587.022566</v>
+        <v>1688181097.31706</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1715092620354963</v>
+        <v>0.1343018238072916</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03570489422235758</v>
+        <v>0.03856653322077609</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>728792331.9921933</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2568106414.729407</v>
+        <v>4093138145.946971</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1137334689425587</v>
+        <v>0.1129192982793805</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05116035804841058</v>
+        <v>0.0361122035917709</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>18</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1284053297.816314</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>957002489.3359596</v>
+        <v>1017242253.402341</v>
       </c>
       <c r="F51" t="n">
-        <v>0.177970534843185</v>
+        <v>0.1421612415303486</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0506198482604311</v>
+        <v>0.03393949111199536</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>478501335.4632711</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4932864734.434522</v>
+        <v>5172471019.497018</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1182565437989192</v>
+        <v>0.09817527112112723</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03853382837141037</v>
+        <v>0.04467912042225339</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>22</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2466432368.670658</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2572293819.005919</v>
+        <v>3472005515.86429</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1389727980864444</v>
+        <v>0.1518859761286948</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02907832219758859</v>
+        <v>0.03454727268393399</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>15</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1286146971.321813</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4633458766.634698</v>
+        <v>4378392518.003954</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1342486767450474</v>
+        <v>0.1077802404281117</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04338833380608694</v>
+        <v>0.03969628169966466</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>17</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2316729496.968403</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4205003378.98711</v>
+        <v>4493806724.426588</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1601231768979832</v>
+        <v>0.1407193632803207</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02914393180186196</v>
+        <v>0.02386059257245688</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>14</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2102501673.322663</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1787816750.466486</v>
+        <v>1597493753.009016</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1452798566855508</v>
+        <v>0.1257673528432485</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04143502733866813</v>
+        <v>0.05162481776395786</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>893908374.759877</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4016140015.674578</v>
+        <v>4211141497.040844</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1580398287596063</v>
+        <v>0.1250766319509843</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01898896265922539</v>
+        <v>0.02418345880363046</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>17</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2008070097.407584</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1598288169.158922</v>
+        <v>1636360745.58854</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2010512323664277</v>
+        <v>0.1868272008313921</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03402392672227014</v>
+        <v>0.02716293741974583</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>799144106.6405846</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3463965475.221506</v>
+        <v>3874740732.564648</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1291416536128582</v>
+        <v>0.1056624844848991</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04988792502068872</v>
+        <v>0.0460357553364797</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>14</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1731982739.281219</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3572006740.043614</v>
+        <v>3227084877.707904</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1568358771837854</v>
+        <v>0.1348902500005137</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02025766220052614</v>
+        <v>0.0213004458122712</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>16</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1786003500.20653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2316522082.806201</v>
+        <v>3172687101.205589</v>
       </c>
       <c r="F61" t="n">
-        <v>0.123082265077207</v>
+        <v>0.1691833767028192</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02975713080525419</v>
+        <v>0.03112532682443498</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>18</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1158261086.202989</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1812238321.448647</v>
+        <v>2003798618.149556</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1268873986671362</v>
+        <v>0.1514311197492045</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03091399376534255</v>
+        <v>0.04592255944608214</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>906119190.4691805</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5146653285.015678</v>
+        <v>5425331182.727085</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1028094720270632</v>
+        <v>0.08477163964700841</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02886490864365824</v>
+        <v>0.0326987315215241</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>15</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2573326653.600162</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5058088898.4853</v>
+        <v>5208719919.170794</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1568095892976442</v>
+        <v>0.1483360697786925</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03040050723783455</v>
+        <v>0.02216073827301158</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>16</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2529044559.400374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5489485069.382114</v>
+        <v>5323807032.266326</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1503126406335282</v>
+        <v>0.1181870673609871</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0225730404220954</v>
+        <v>0.02293445732295083</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>19</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2744742464.287892</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5096657863.580827</v>
+        <v>5138851193.662486</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1113290675810265</v>
+        <v>0.1073559354485076</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0478639047486917</v>
+        <v>0.04486947886034549</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>16</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2548328963.992174</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2432354663.787297</v>
+        <v>2906152841.163994</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08315888947710055</v>
+        <v>0.07511418136104331</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03595370042817708</v>
+        <v>0.04195277844087371</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>17</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1216177398.095924</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4895199493.143673</v>
+        <v>5088931250.058188</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1020550948727543</v>
+        <v>0.09829581744222116</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0385162277526623</v>
+        <v>0.04154667515600482</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>17</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2447599796.482916</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1763677264.983044</v>
+        <v>2116429215.93854</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1430819340852621</v>
+        <v>0.1617796324629838</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05731734800998088</v>
+        <v>0.05008945055805752</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>881838606.7742572</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3713344176.994527</v>
+        <v>3167925083.721622</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06704883901564199</v>
+        <v>0.09575859845993197</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03890947044292051</v>
+        <v>0.03778072730883832</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>15</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1856672111.750227</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4388959718.355858</v>
+        <v>4739791003.624745</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1862789678475367</v>
+        <v>0.1230879709302366</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03358652689173548</v>
+        <v>0.0275225498465917</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>19</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2194479919.13371</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1685937115.560051</v>
+        <v>2092600308.43926</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1020857147710927</v>
+        <v>0.07742581133326117</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05304908011330802</v>
+        <v>0.04234391077421242</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>842968554.6314698</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3039391964.501725</v>
+        <v>2510812018.431333</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08883455598768868</v>
+        <v>0.1007410204037626</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03409435907983328</v>
+        <v>0.04014821684614291</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>20</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1519695974.501632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3941207564.081104</v>
+        <v>2525400763.650738</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1193034842303987</v>
+        <v>0.1287392706910185</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0329279625859011</v>
+        <v>0.02598300997037603</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>19</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1970603765.966473</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2047096106.392524</v>
+        <v>2072620150.046132</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1380958169257224</v>
+        <v>0.1336373710169475</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02555535085576449</v>
+        <v>0.03046088437681439</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1023548012.805288</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3816792965.179859</v>
+        <v>4279567306.728978</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09607836233402454</v>
+        <v>0.09027163381352207</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02337169003992965</v>
+        <v>0.02364355431850331</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>11</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1908396459.462952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1556376304.013078</v>
+        <v>1867827631.677297</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1698408047250883</v>
+        <v>0.1161771905062116</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02652862862842146</v>
+        <v>0.02918253573324759</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>778188147.8666837</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4345349642.217775</v>
+        <v>4690388877.794124</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08652868970297486</v>
+        <v>0.08778714583266956</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04341933535547072</v>
+        <v>0.03477364048081659</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>18</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2172674761.968982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1457967106.819692</v>
+        <v>1322730946.04479</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1474261809895243</v>
+        <v>0.1235686434483553</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03780791256640917</v>
+        <v>0.03895081617845592</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>728983580.1034575</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5013061158.248248</v>
+        <v>4384317731.265426</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08394027319802976</v>
+        <v>0.09679823437025142</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0348954140176729</v>
+        <v>0.02919196158778626</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>11</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2506530628.848009</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4753046551.945137</v>
+        <v>4554557478.871795</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0938924062785944</v>
+        <v>0.1131054309557458</v>
       </c>
       <c r="G81" t="n">
-        <v>0.025766658512512</v>
+        <v>0.03297270318902484</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>11</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2376523267.055838</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5650633612.99417</v>
+        <v>5417861169.31551</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1709529759083911</v>
+        <v>0.16777820773486</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02557168153920789</v>
+        <v>0.02490880428450339</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>20</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2825316753.989257</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2082463684.519586</v>
+        <v>1773726798.287539</v>
       </c>
       <c r="F83" t="n">
-        <v>0.135379826758642</v>
+        <v>0.158068937988345</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03806662481327168</v>
+        <v>0.03191405553777132</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1041231837.708965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1617765459.450055</v>
+        <v>1979711336.60809</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08129856391796245</v>
+        <v>0.1162558482925045</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0515765980524515</v>
+        <v>0.04951828750940569</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>808882790.5775579</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3183885065.365567</v>
+        <v>3288703615.916556</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1696880254779378</v>
+        <v>0.1129625013861898</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05527566988831568</v>
+        <v>0.05372012555426202</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>20</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1591942613.007477</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2378932087.920862</v>
+        <v>2706491956.389586</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1493135630782546</v>
+        <v>0.1561639735720711</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02735858875038774</v>
+        <v>0.0179811128820009</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>5</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1189466124.122928</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1144519454.781074</v>
+        <v>1083940542.215297</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1363511222925103</v>
+        <v>0.1224820979258887</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03696680955213973</v>
+        <v>0.04094400320196922</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>572259768.6413792</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3239461955.674316</v>
+        <v>3665605120.591539</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1298249253579324</v>
+        <v>0.1367135339549376</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03385194029965028</v>
+        <v>0.03890010321877869</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>20</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1619731031.794513</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2824343388.13989</v>
+        <v>3478766507.951911</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1484406145796901</v>
+        <v>0.1533554050751521</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02989289973321662</v>
+        <v>0.03762276566585465</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>18</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1412171744.927659</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1805720794.778492</v>
+        <v>1890600463.873524</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1371233477092743</v>
+        <v>0.1359921536609977</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04868111648852386</v>
+        <v>0.03672436714133472</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>902860431.9778514</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2040115473.398013</v>
+        <v>2089474452.727496</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1611056345181712</v>
+        <v>0.1523024159308967</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05195869185328892</v>
+        <v>0.05216149963282672</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1020057703.491689</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2335829176.38925</v>
+        <v>1876381266.796395</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09685404358814904</v>
+        <v>0.1070200383767841</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03601443774130991</v>
+        <v>0.03419590296835893</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>13</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1167914559.612835</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4714038146.10441</v>
+        <v>4701443605.015581</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1063974001652009</v>
+        <v>0.1172578621872501</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04373125514419596</v>
+        <v>0.04821832674612242</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>15</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2357019027.386421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1886057159.128757</v>
+        <v>2427464696.768608</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1502448203080163</v>
+        <v>0.121670009983801</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03978790611388589</v>
+        <v>0.03460348087748299</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>943028562.9690679</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3138260483.748102</v>
+        <v>2199468288.663121</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08838270848649754</v>
+        <v>0.1182803640731247</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05272136970398613</v>
+        <v>0.03794681352315275</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>12</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1569130231.47102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1529254611.556417</v>
+        <v>2001155447.88659</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09963985548649472</v>
+        <v>0.1212475552081207</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03477519067339414</v>
+        <v>0.03317765103800413</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>764627342.8604516</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5054237637.137823</v>
+        <v>3855079185.361603</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1078869266473605</v>
+        <v>0.1158445976892613</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02548942875039203</v>
+        <v>0.02396065064767946</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>17</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2527118959.595563</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3695930581.713267</v>
+        <v>3922821861.813385</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09401021653540276</v>
+        <v>0.115250135652367</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03131358324763208</v>
+        <v>0.01996069404929998</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>15</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1847965322.62008</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3189358066.619664</v>
+        <v>2700179128.395365</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1303438577615874</v>
+        <v>0.1217277315378182</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02818526780960972</v>
+        <v>0.02800602768839426</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>16</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1594679032.911625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4407327441.682697</v>
+        <v>4050018727.219605</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1723207044495524</v>
+        <v>0.1325006480650493</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02757719462824402</v>
+        <v>0.02139382386028483</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>16</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2203663823.889637</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3409556779.968884</v>
+        <v>3542629101.736614</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1344581970519375</v>
+        <v>0.1461697348112264</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05724631299584666</v>
+        <v>0.04466289951851499</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>22</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1704778533.046664</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_53.xlsx
+++ b/output/fit_clients/fit_round_53.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2092026014.307731</v>
+        <v>2200984993.649716</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08363976355887515</v>
+        <v>0.07013912642848348</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03841980041060359</v>
+        <v>0.0356609129207513</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1639705860.764769</v>
+        <v>1684646516.896774</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1307422238113419</v>
+        <v>0.1698475222761478</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03311635670896589</v>
+        <v>0.03166708847709266</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4172271632.859532</v>
+        <v>5146689076.871397</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1124492722373122</v>
+        <v>0.1241167421984439</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0302936944026541</v>
+        <v>0.03283960910702433</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3205557195.107822</v>
+        <v>2680531814.149122</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08575815338737609</v>
+        <v>0.08712340236885061</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04010638318863616</v>
+        <v>0.050244568867131</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1897264486.248932</v>
+        <v>2516906141.665995</v>
       </c>
       <c r="F6" t="n">
-        <v>0.139368270433775</v>
+        <v>0.1402536615295895</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0558223158998491</v>
+        <v>0.03431965140285097</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2910420842.300974</v>
+        <v>2427830365.147479</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09191756797216569</v>
+        <v>0.09420628820701918</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03365770731924639</v>
+        <v>0.03004797993114386</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -654,16 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3758910337.768041</v>
+        <v>3120864256.017613</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1611163423457749</v>
+        <v>0.1346197943754963</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0239261960084735</v>
+        <v>0.02310962934122968</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2289234540.354018</v>
+        <v>2073745324.817249</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1870892826973031</v>
+        <v>0.141213609798765</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02599137202518779</v>
+        <v>0.02747196777069683</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5598070554.145294</v>
+        <v>5912194862.546643</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1851934502059792</v>
+        <v>0.1502536977505667</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04359701131185438</v>
+        <v>0.0378907191815588</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4042136264.014103</v>
+        <v>3553065714.729189</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1207587083359979</v>
+        <v>0.1533630985243783</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03468807890570755</v>
+        <v>0.04457937551167497</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2822272918.931174</v>
+        <v>2862251229.343348</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1702237851460095</v>
+        <v>0.1251270492239761</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03451242573351845</v>
+        <v>0.04010741711673096</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3835247187.987134</v>
+        <v>4414676544.263735</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06628145382626849</v>
+        <v>0.09273290364264999</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02282211267557791</v>
+        <v>0.02230040201815519</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3561671195.020678</v>
+        <v>2693844550.482828</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1691590572087308</v>
+        <v>0.1594437880530776</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03708897558266658</v>
+        <v>0.02992610309462793</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1363873644.074746</v>
+        <v>1592101956.21539</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0667973040291495</v>
+        <v>0.0662221514799065</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04236433410631999</v>
+        <v>0.03703161389720365</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1927266983.080734</v>
+        <v>1984045680.406689</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1041836006830184</v>
+        <v>0.08193213516068358</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03139306589798868</v>
+        <v>0.04492843749857998</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3965491569.848939</v>
+        <v>4630475094.01558</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1171542994046123</v>
+        <v>0.1637225502486813</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04122409504571722</v>
+        <v>0.03943505981563224</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3915299405.501215</v>
+        <v>2749286904.53579</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1340050472628098</v>
+        <v>0.122356178667312</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02530712651406703</v>
+        <v>0.02358961485243793</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>859033312.0959003</v>
+        <v>1071052076.75144</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1913545898228378</v>
+        <v>0.1658846512670671</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02117132545221814</v>
+        <v>0.01789741046865811</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2357075632.187675</v>
+        <v>2708778946.685342</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1138227802387175</v>
+        <v>0.1034843446511271</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02683096893549188</v>
+        <v>0.02801469150132928</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1932453977.695356</v>
+        <v>2346633416.78486</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09349062102360135</v>
+        <v>0.09503742769129464</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03122301263838945</v>
+        <v>0.03204886823616249</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3772798754.130639</v>
+        <v>2927644074.381166</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1346425580553008</v>
+        <v>0.107541253878173</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0461366121082611</v>
+        <v>0.05569365560607494</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1415244787.985763</v>
+        <v>1010083538.328234</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1433389634326173</v>
+        <v>0.1496444943158766</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04665274181638154</v>
+        <v>0.05315006786173052</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3213046295.095896</v>
+        <v>3246836878.612054</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1026730792621778</v>
+        <v>0.1411639803848388</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03011903936624288</v>
+        <v>0.0260387740495653</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1283138335.342301</v>
+        <v>1046954258.986289</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0744470757746953</v>
+        <v>0.1148195641378455</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02412778052441554</v>
+        <v>0.0307698066146425</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1253325230.958314</v>
+        <v>1304362598.395954</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1071991185050122</v>
+        <v>0.1062429253153934</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03305626781150003</v>
+        <v>0.02993766364599797</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4530224621.656052</v>
+        <v>3503005333.880963</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1098599033312343</v>
+        <v>0.1199705233320315</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01677136017354494</v>
+        <v>0.01739693070917055</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3780350877.136755</v>
+        <v>3063337611.717429</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09204990536319865</v>
+        <v>0.1349502561619188</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0479412636741271</v>
+        <v>0.04471676590173115</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4846332399.268221</v>
+        <v>5463947869.959451</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1080114041424278</v>
+        <v>0.1294068433635154</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0387239495558205</v>
+        <v>0.03658088356656462</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1724364489.421832</v>
+        <v>1570064886.588091</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1374249585069134</v>
+        <v>0.1274066996180341</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02963618863646151</v>
+        <v>0.03160623551090742</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1120133457.595695</v>
+        <v>1036418910.491037</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09663822085321641</v>
+        <v>0.09362548214884647</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0415118144861487</v>
+        <v>0.03630411848831042</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1811087711.39389</v>
+        <v>1366828221.539946</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1118077650435828</v>
+        <v>0.08172200059682168</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03564841809738859</v>
+        <v>0.03874738205849305</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2020383712.03934</v>
+        <v>2409308300.283756</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1764206653534464</v>
+        <v>0.1377134586183111</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04792605665791889</v>
+        <v>0.05405124152357928</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1460279202.385825</v>
+        <v>1323152664.133906</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1129402237267888</v>
+        <v>0.09574556648462963</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02534775469111798</v>
+        <v>0.01709357254228427</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1278816455.678403</v>
+        <v>1102434606.523948</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1006567470037544</v>
+        <v>0.1072415961257275</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03816069194367987</v>
+        <v>0.02742882327783415</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2174031273.780374</v>
+        <v>2156579852.822345</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1709466362481394</v>
+        <v>0.1181186157633568</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02867774073657988</v>
+        <v>0.02611500748177707</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1869960873.954305</v>
+        <v>2444513131.242404</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1026153263670208</v>
+        <v>0.06905903733618009</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02822421149842202</v>
+        <v>0.04229509681869856</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1872311068.87294</v>
+        <v>2036703037.436802</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1125544968648698</v>
+        <v>0.1217573140206182</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03455816082542353</v>
+        <v>0.02727304941966305</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1722040623.16127</v>
+        <v>2121786011.883818</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1529374226470183</v>
+        <v>0.1838614162166127</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0231148660784431</v>
+        <v>0.02134980925294358</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1761668445.97193</v>
+        <v>1294529946.913601</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1400985733724218</v>
+        <v>0.1001130489569204</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04681700382307009</v>
+        <v>0.03712741642479314</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2389866821.780214</v>
+        <v>2001306590.444152</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1212062143126646</v>
+        <v>0.1229144010393489</v>
       </c>
       <c r="G41" t="n">
-        <v>0.032342215846993</v>
+        <v>0.04410550703909226</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3529515051.418569</v>
+        <v>3160154935.248909</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1189268825161939</v>
+        <v>0.08133720269530441</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03352621394288955</v>
+        <v>0.03308730204700122</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2905454270.517212</v>
+        <v>2518728806.367758</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1789646543540848</v>
+        <v>0.1818948127274795</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01886231012324819</v>
+        <v>0.01636380498038075</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1712017813.612802</v>
+        <v>1546671577.921163</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1008766656712598</v>
+        <v>0.06255625214179435</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03505593788115808</v>
+        <v>0.02735822929094369</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1623580148.379274</v>
+        <v>2253584387.102146</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1562465564597211</v>
+        <v>0.1507781068588672</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03882675850156484</v>
+        <v>0.04012600169026795</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3825466896.392663</v>
+        <v>5476473258.193079</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1462143680896515</v>
+        <v>0.1732135862195685</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04878545142115279</v>
+        <v>0.04430743563632816</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,13 +1746,13 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3724348429.247368</v>
+        <v>3391041482.296969</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1303192328067244</v>
+        <v>0.1469360212817021</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05382305694144909</v>
+        <v>0.04234933391469053</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4255774480.582999</v>
+        <v>3671095925.365841</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08946290891279503</v>
+        <v>0.08985903434608526</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0340107023956226</v>
+        <v>0.02731089597009119</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1688181097.31706</v>
+        <v>1672577688.931798</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1343018238072916</v>
+        <v>0.1596290394954978</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03856653322077609</v>
+        <v>0.02858716872611312</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4093138145.946971</v>
+        <v>2644909360.891139</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1129192982793805</v>
+        <v>0.1674115320534225</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0361122035917709</v>
+        <v>0.05159247425359073</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1017242253.402341</v>
+        <v>1146138377.293535</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1421612415303486</v>
+        <v>0.1932528062566417</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03393949111199536</v>
+        <v>0.04478533949846791</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5172471019.497018</v>
+        <v>5081303917.631829</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09817527112112723</v>
+        <v>0.1200437784220109</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04467912042225339</v>
+        <v>0.0581704451564324</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3472005515.86429</v>
+        <v>2314471496.251106</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1518859761286948</v>
+        <v>0.1792787474546761</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03454727268393399</v>
+        <v>0.02164880497980136</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4378392518.003954</v>
+        <v>4493169483.644427</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1077802404281117</v>
+        <v>0.1448993744738721</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03969628169966466</v>
+        <v>0.03639356617941353</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4493806724.426588</v>
+        <v>4136961313.108221</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1407193632803207</v>
+        <v>0.2216464699585133</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02386059257245688</v>
+        <v>0.02075926695422705</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1597493753.009016</v>
+        <v>1471708057.109728</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1257673528432485</v>
+        <v>0.1471096246684879</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05162481776395786</v>
+        <v>0.05464656380466576</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4211141497.040844</v>
+        <v>3742155822.374303</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1250766319509843</v>
+        <v>0.1178394097662045</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02418345880363046</v>
+        <v>0.01934484624153473</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,16 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1636360745.58854</v>
+        <v>1860810955.883106</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1868272008313921</v>
+        <v>0.1832911071047616</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02716293741974583</v>
+        <v>0.03947584695019336</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3874740732.564648</v>
+        <v>4010873031.527514</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1056624844848991</v>
+        <v>0.08641971523021284</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0460357553364797</v>
+        <v>0.04288639613171829</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3227084877.707904</v>
+        <v>3756587057.078859</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1348902500005137</v>
+        <v>0.162858893942769</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0213004458122712</v>
+        <v>0.02730517805855446</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3172687101.205589</v>
+        <v>2589191862.414755</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1691833767028192</v>
+        <v>0.1781822601039267</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03112532682443498</v>
+        <v>0.03156355594025943</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2003798618.149556</v>
+        <v>1357375869.672176</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1514311197492045</v>
+        <v>0.1690791207345196</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04592255944608214</v>
+        <v>0.03499377617819957</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5425331182.727085</v>
+        <v>4314623456.503445</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08477163964700841</v>
+        <v>0.08767001244069511</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0326987315215241</v>
+        <v>0.02977411638857262</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5208719919.170794</v>
+        <v>5030329031.86387</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1483360697786925</v>
+        <v>0.1653507200729056</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02216073827301158</v>
+        <v>0.03208552754828037</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5323807032.266326</v>
+        <v>3941122018.295139</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1181870673609871</v>
+        <v>0.1336365432293742</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02293445732295083</v>
+        <v>0.02245353433099192</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5138851193.662486</v>
+        <v>5448203711.719049</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1073559354485076</v>
+        <v>0.1297737117188637</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04486947886034549</v>
+        <v>0.0400749348879199</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2906152841.163994</v>
+        <v>2994140815.360645</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07511418136104331</v>
+        <v>0.09120800044565008</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04195277844087371</v>
+        <v>0.03834485179489727</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5088931250.058188</v>
+        <v>5309970270.769626</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09829581744222116</v>
+        <v>0.1138572566312363</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04154667515600482</v>
+        <v>0.04810116358549683</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2116429215.93854</v>
+        <v>2448558729.322597</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1617796324629838</v>
+        <v>0.181407337959027</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05008945055805752</v>
+        <v>0.03791039589789476</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3167925083.721622</v>
+        <v>2801151603.254028</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09575859845993197</v>
+        <v>0.06644081364858474</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03778072730883832</v>
+        <v>0.04748854713545145</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,13 +2418,13 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4739791003.624745</v>
+        <v>4566451965.04777</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1230879709302366</v>
+        <v>0.1461408823486423</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0275225498465917</v>
+        <v>0.0256442059279593</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2092600308.43926</v>
+        <v>1498028844.67617</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07742581133326117</v>
+        <v>0.1051383797594805</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04234391077421242</v>
+        <v>0.04711772864582498</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2510812018.431333</v>
+        <v>2709113623.424396</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1007410204037626</v>
+        <v>0.07075430007973139</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04014821684614291</v>
+        <v>0.04474461612758835</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2525400763.650738</v>
+        <v>3364825964.491305</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1287392706910185</v>
+        <v>0.1787327360774486</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02598300997037603</v>
+        <v>0.02590397102135155</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2072620150.046132</v>
+        <v>2475324458.716779</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1336373710169475</v>
+        <v>0.1616049509371601</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03046088437681439</v>
+        <v>0.03251661629230829</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4279567306.728978</v>
+        <v>4139664391.128779</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09027163381352207</v>
+        <v>0.1084268564693983</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02364355431850331</v>
+        <v>0.03245593468851025</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1867827631.677297</v>
+        <v>1517743569.274681</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1161771905062116</v>
+        <v>0.1860810552915562</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02918253573324759</v>
+        <v>0.02447606146244857</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4690388877.794124</v>
+        <v>4779087968.22394</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08778714583266956</v>
+        <v>0.1270283602422523</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03477364048081659</v>
+        <v>0.04493586123675018</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1322730946.04479</v>
+        <v>1243467451.398344</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1235686434483553</v>
+        <v>0.1090900357339196</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03895081617845592</v>
+        <v>0.03388947766943059</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4384317731.265426</v>
+        <v>5344727928.313488</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09679823437025142</v>
+        <v>0.108047201556646</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02919196158778626</v>
+        <v>0.02832933624994849</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4554557478.871795</v>
+        <v>3381025518.840462</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1131054309557458</v>
+        <v>0.08269976547930941</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03297270318902484</v>
+        <v>0.03266123000729892</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5417861169.31551</v>
+        <v>3561957417.480804</v>
       </c>
       <c r="F82" t="n">
-        <v>0.16777820773486</v>
+        <v>0.1426789027765609</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02490880428450339</v>
+        <v>0.0264238172297381</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1773726798.287539</v>
+        <v>2433390296.691824</v>
       </c>
       <c r="F83" t="n">
-        <v>0.158068937988345</v>
+        <v>0.09782017283913579</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03191405553777132</v>
+        <v>0.0385958386390849</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1979711336.60809</v>
+        <v>1612111694.80215</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1162558482925045</v>
+        <v>0.1185980985384808</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04951828750940569</v>
+        <v>0.04818728221554782</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3288703615.916556</v>
+        <v>3665830645.582372</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1129625013861898</v>
+        <v>0.147636231837655</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05372012555426202</v>
+        <v>0.04550427408211536</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2706491956.389586</v>
+        <v>1926274548.932774</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1561639735720711</v>
+        <v>0.1415899807133252</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0179811128820009</v>
+        <v>0.01662033663299089</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1083940542.215297</v>
+        <v>1359068177.29667</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1224820979258887</v>
+        <v>0.1671001826344564</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04094400320196922</v>
+        <v>0.04221486373819464</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2894,16 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3665605120.591539</v>
+        <v>2326910742.876374</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1367135339549376</v>
+        <v>0.1296752914213605</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03890010321877869</v>
+        <v>0.03460444227650938</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3478766507.951911</v>
+        <v>2465327206.463774</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1533554050751521</v>
+        <v>0.1261722954553471</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03762276566585465</v>
+        <v>0.04183903565704622</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1890600463.873524</v>
+        <v>2112523069.521913</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1359921536609977</v>
+        <v>0.08593838317493324</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03672436714133472</v>
+        <v>0.0485745307618335</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2089474452.727496</v>
+        <v>2033023458.519081</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1523024159308967</v>
+        <v>0.1917941837388598</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05216149963282672</v>
+        <v>0.04734040200783683</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1876381266.796395</v>
+        <v>3005626894.31078</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1070200383767841</v>
+        <v>0.07574946043842097</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03419590296835893</v>
+        <v>0.03611245924266621</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4701443605.015581</v>
+        <v>4539539522.05837</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1172578621872501</v>
+        <v>0.1100428951628552</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04821832674612242</v>
+        <v>0.03332120356840042</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2427464696.768608</v>
+        <v>2391122617.23805</v>
       </c>
       <c r="F94" t="n">
-        <v>0.121670009983801</v>
+        <v>0.1592653777098955</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03460348087748299</v>
+        <v>0.03488088559349307</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2199468288.663121</v>
+        <v>2926341829.921437</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1182803640731247</v>
+        <v>0.1016409169178786</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03794681352315275</v>
+        <v>0.03833412526462004</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2001155447.88659</v>
+        <v>2024713020.737845</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1212475552081207</v>
+        <v>0.08607256588555773</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03317765103800413</v>
+        <v>0.04650214071255556</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3855079185.361603</v>
+        <v>4348888113.457801</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1158445976892613</v>
+        <v>0.1100576415973862</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02396065064767946</v>
+        <v>0.02115390965241315</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3922821861.813385</v>
+        <v>3275596899.715337</v>
       </c>
       <c r="F98" t="n">
-        <v>0.115250135652367</v>
+        <v>0.08555596938055608</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01996069404929998</v>
+        <v>0.02493632911224481</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2700179128.395365</v>
+        <v>3225128715.915289</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1217277315378182</v>
+        <v>0.1265136676752287</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02800602768839426</v>
+        <v>0.02531360922273371</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4050018727.219605</v>
+        <v>3920392143.300085</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1325006480650493</v>
+        <v>0.1247841887291338</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02139382386028483</v>
+        <v>0.02156607594470544</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3542629101.736614</v>
+        <v>2564417094.299208</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1461697348112264</v>
+        <v>0.2000796428050655</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04466289951851499</v>
+        <v>0.04587382748513696</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_53.xlsx
+++ b/output/fit_clients/fit_round_53.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2200984993.649716</v>
+        <v>2387663731.016131</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07013912642848348</v>
+        <v>0.09422057439260519</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0356609129207513</v>
+        <v>0.0378536867601093</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1684646516.896774</v>
+        <v>2436340592.215203</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1698475222761478</v>
+        <v>0.1286848386295857</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03166708847709266</v>
+        <v>0.03448808579257458</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5146689076.871397</v>
+        <v>3890257347.779039</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1241167421984439</v>
+        <v>0.1593915006584907</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03283960910702433</v>
+        <v>0.02422202787202404</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>39</v>
+      </c>
+      <c r="J4" t="n">
+        <v>52</v>
+      </c>
+      <c r="K4" t="n">
+        <v>204.7288921455309</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2680531814.149122</v>
+        <v>3963876460.070155</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08712340236885061</v>
+        <v>0.08857126220997408</v>
       </c>
       <c r="G5" t="n">
-        <v>0.050244568867131</v>
+        <v>0.03511687569979324</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>24</v>
+      </c>
+      <c r="J5" t="n">
+        <v>53</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2516906141.665995</v>
+        <v>2136287665.711714</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1402536615295895</v>
+        <v>0.1147246314210685</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03431965140285097</v>
+        <v>0.03695207089417844</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2427830365.147479</v>
+        <v>2114294436.928715</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09420628820701918</v>
+        <v>0.09971906120905201</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03004797993114386</v>
+        <v>0.03730560943008935</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3120864256.017613</v>
+        <v>3014570196.407306</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1346197943754963</v>
+        <v>0.2036487278313053</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02310962934122968</v>
+        <v>0.03332110976236557</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>12</v>
+      </c>
+      <c r="J8" t="n">
+        <v>49</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2073745324.817249</v>
+        <v>1489254996.848068</v>
       </c>
       <c r="F9" t="n">
-        <v>0.141213609798765</v>
+        <v>0.1298287037975731</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02747196777069683</v>
+        <v>0.03601718569318766</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5912194862.546643</v>
+        <v>4409880792.882703</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1502536977505667</v>
+        <v>0.1962763683447361</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0378907191815588</v>
+        <v>0.04944810795653061</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>49</v>
+      </c>
+      <c r="J10" t="n">
+        <v>53</v>
+      </c>
+      <c r="K10" t="n">
+        <v>226.8643786533212</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3553065714.729189</v>
+        <v>3875512770.245295</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1533630985243783</v>
+        <v>0.137058646470791</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04457937551167497</v>
+        <v>0.04828952208426025</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>25</v>
+      </c>
+      <c r="J11" t="n">
+        <v>53</v>
+      </c>
+      <c r="K11" t="n">
+        <v>219.7849828792595</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2862251229.343348</v>
+        <v>2584343687.706623</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1251270492239761</v>
+        <v>0.1318783055141232</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04010741711673096</v>
+        <v>0.04602745108773657</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +892,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4414676544.263735</v>
+        <v>4454667514.740463</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09273290364264999</v>
+        <v>0.0655786856508314</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02230040201815519</v>
+        <v>0.02189404372946148</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>26</v>
+      </c>
+      <c r="J13" t="n">
+        <v>53</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +927,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2693844550.482828</v>
+        <v>3628081460.414561</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1594437880530776</v>
+        <v>0.1142452388479149</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02992610309462793</v>
+        <v>0.02805983051119627</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>9</v>
+      </c>
+      <c r="J14" t="n">
+        <v>51</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1592101956.21539</v>
+        <v>1368800246.013495</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0662221514799065</v>
+        <v>0.09304272682841694</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03703161389720365</v>
+        <v>0.03638492506545241</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1984045680.406689</v>
+        <v>2781426018.185753</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08193213516068358</v>
+        <v>0.08787792735317339</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04492843749857998</v>
+        <v>0.03876127585502721</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1032,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4630475094.01558</v>
+        <v>4357649080.231696</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1637225502486813</v>
+        <v>0.1180821386680709</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03943505981563224</v>
+        <v>0.03249841985441187</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>25</v>
+      </c>
+      <c r="J17" t="n">
+        <v>53</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2749286904.53579</v>
+        <v>3770346530.958821</v>
       </c>
       <c r="F18" t="n">
-        <v>0.122356178667312</v>
+        <v>0.1506579887808556</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02358961485243793</v>
+        <v>0.02143881446495262</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>12</v>
+      </c>
+      <c r="J18" t="n">
+        <v>53</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1071052076.75144</v>
+        <v>1212163489.027334</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1658846512670671</v>
+        <v>0.1721596102929284</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01789741046865811</v>
+        <v>0.01743449822417674</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2708778946.685342</v>
+        <v>1900595068.505752</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1034843446511271</v>
+        <v>0.1275948191029852</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02801469150132928</v>
+        <v>0.02284380292143531</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2346633416.78486</v>
+        <v>1823033159.124621</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09503742769129464</v>
+        <v>0.08916000444012429</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03204886823616249</v>
+        <v>0.04284266363404375</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2927644074.381166</v>
+        <v>2694442731.927201</v>
       </c>
       <c r="F22" t="n">
-        <v>0.107541253878173</v>
+        <v>0.1047339907011725</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05569365560607494</v>
+        <v>0.04661419836214232</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>14</v>
+      </c>
+      <c r="J22" t="n">
+        <v>46</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1242,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1010083538.328234</v>
+        <v>975208718.2264249</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1496444943158766</v>
+        <v>0.1122907205213292</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05315006786173052</v>
+        <v>0.03962161773598805</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1277,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3246836878.612054</v>
+        <v>3701801481.215256</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1411639803848388</v>
+        <v>0.1041552561131348</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0260387740495653</v>
+        <v>0.02979704331429911</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>15</v>
+      </c>
+      <c r="J24" t="n">
+        <v>53</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1046954258.986289</v>
+        <v>903766928.3780974</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1148195641378455</v>
+        <v>0.1085541238100736</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0307698066146425</v>
+        <v>0.03008957390481365</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1304362598.395954</v>
+        <v>1303689582.12063</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1062429253153934</v>
+        <v>0.0813879393919187</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02993766364599797</v>
+        <v>0.03718014110885408</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1376,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3503005333.880963</v>
+        <v>3204398118.490795</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1199705233320315</v>
+        <v>0.1227719793700881</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01739693070917055</v>
+        <v>0.0233531524044185</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>20</v>
+      </c>
+      <c r="J27" t="n">
+        <v>51</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1411,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3063337611.717429</v>
+        <v>3331015463.491695</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1349502561619188</v>
+        <v>0.1192959011817661</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04471676590173115</v>
+        <v>0.04744620567588215</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>15</v>
+      </c>
+      <c r="J28" t="n">
+        <v>51</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1446,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5463947869.959451</v>
+        <v>4657067210.309608</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1294068433635154</v>
+        <v>0.1372047179627811</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03658088356656462</v>
+        <v>0.04492576770254576</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>48</v>
+      </c>
+      <c r="J29" t="n">
+        <v>53</v>
+      </c>
+      <c r="K29" t="n">
+        <v>233.6150226859772</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1570064886.588091</v>
+        <v>2121419585.62916</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1274066996180341</v>
+        <v>0.11030787967301</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03160623551090742</v>
+        <v>0.03619079226757184</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1036418910.491037</v>
+        <v>1322144439.14489</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09362548214884647</v>
+        <v>0.1081228531305208</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03630411848831042</v>
+        <v>0.04803779660759186</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1366828221.539946</v>
+        <v>1368236581.568057</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08172200059682168</v>
+        <v>0.1046523268248933</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03874738205849305</v>
+        <v>0.03470613212001957</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1594,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2409308300.283756</v>
+        <v>2579061364.947062</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1377134586183111</v>
+        <v>0.1636467236668856</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05405124152357928</v>
+        <v>0.04355379998781253</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1629,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1323152664.133906</v>
+        <v>1165585235.564947</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09574556648462963</v>
+        <v>0.07480274336768759</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01709357254228427</v>
+        <v>0.0254980044385625</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1102434606.523948</v>
+        <v>898578166.0339315</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1072415961257275</v>
+        <v>0.1112360154288016</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02742882327783415</v>
+        <v>0.04366660559193659</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2156579852.822345</v>
+        <v>2069238603.201887</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1181186157633568</v>
+        <v>0.1791625262599661</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02611500748177707</v>
+        <v>0.02770809807869569</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1728,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2444513131.242404</v>
+        <v>2106522432.000672</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06905903733618009</v>
+        <v>0.07232070785497687</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04229509681869856</v>
+        <v>0.02962573093825369</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1769,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2036703037.436802</v>
+        <v>2033162992.982609</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1217573140206182</v>
+        <v>0.1188017354714293</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02727304941966305</v>
+        <v>0.02434686010003715</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1798,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2121786011.883818</v>
+        <v>2119041691.252918</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1838614162166127</v>
+        <v>0.1368431442502407</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02134980925294358</v>
+        <v>0.0238675877683619</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1294529946.913601</v>
+        <v>1763710332.777432</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1001130489569204</v>
+        <v>0.1169893499263041</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03712741642479314</v>
+        <v>0.03645214134930998</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2001306590.444152</v>
+        <v>2743482635.822834</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1229144010393489</v>
+        <v>0.122645388338552</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04410550703909226</v>
+        <v>0.03455361529772572</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1903,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3160154935.248909</v>
+        <v>3007610590.128566</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08133720269530441</v>
+        <v>0.1082765486957892</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03308730204700122</v>
+        <v>0.04564232961196712</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>19</v>
+      </c>
+      <c r="J42" t="n">
+        <v>52</v>
+      </c>
+      <c r="K42" t="n">
+        <v>133.3873198961027</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2518728806.367758</v>
+        <v>2462737751.160672</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1818948127274795</v>
+        <v>0.1726055095330835</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01636380498038075</v>
+        <v>0.01829587413242872</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1546671577.921163</v>
+        <v>1502781049.142634</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06255625214179435</v>
+        <v>0.06221398810806654</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02735822929094369</v>
+        <v>0.02375405937465662</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2016,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2253584387.102146</v>
+        <v>1615549153.814184</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1507781068588672</v>
+        <v>0.1752312101759307</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04012600169026795</v>
+        <v>0.03832976738575491</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5476473258.193079</v>
+        <v>5018880648.633265</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1732135862195685</v>
+        <v>0.1444998657923387</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04430743563632816</v>
+        <v>0.0561205009102076</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>32</v>
+      </c>
+      <c r="J46" t="n">
+        <v>52</v>
+      </c>
+      <c r="K46" t="n">
+        <v>201.4431868987881</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2082,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3391041482.296969</v>
+        <v>3267580629.264702</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1469360212817021</v>
+        <v>0.1354736911938418</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04234933391469053</v>
+        <v>0.05857813713815864</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>23</v>
+      </c>
+      <c r="J47" t="n">
+        <v>52</v>
+      </c>
+      <c r="K47" t="n">
+        <v>137.9104207914523</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3671095925.365841</v>
+        <v>3158181568.781654</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08985903434608526</v>
+        <v>0.06927296999275177</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02731089597009119</v>
+        <v>0.038670894875271</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>18</v>
+      </c>
+      <c r="J48" t="n">
+        <v>52</v>
+      </c>
+      <c r="K48" t="n">
+        <v>148.7587685315196</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1672577688.931798</v>
+        <v>1691855902.238714</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1596290394954978</v>
+        <v>0.1274821580620456</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02858716872611312</v>
+        <v>0.04330427779246746</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2644909360.891139</v>
+        <v>3384066335.848249</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1674115320534225</v>
+        <v>0.1080283007639352</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05159247425359073</v>
+        <v>0.05147937945217197</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>18</v>
+      </c>
+      <c r="J50" t="n">
+        <v>50</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1146138377.293535</v>
+        <v>1062057873.058081</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1932528062566417</v>
+        <v>0.1714759228726992</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04478533949846791</v>
+        <v>0.05301579110200751</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5081303917.631829</v>
+        <v>3920900524.997616</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1200437784220109</v>
+        <v>0.08371889268403326</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0581704451564324</v>
+        <v>0.04142171396187508</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>41</v>
+      </c>
+      <c r="J52" t="n">
+        <v>53</v>
+      </c>
+      <c r="K52" t="n">
+        <v>215.3222094984235</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2304,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2314471496.251106</v>
+        <v>2749082382.964581</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1792787474546761</v>
+        <v>0.1571840673422637</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02164880497980136</v>
+        <v>0.02957843217797113</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>6</v>
+      </c>
+      <c r="J53" t="n">
+        <v>36</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2339,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4493169483.644427</v>
+        <v>4116877752.57566</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1448993744738721</v>
+        <v>0.1508985871321688</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03639356617941353</v>
+        <v>0.05223543166744802</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>23</v>
+      </c>
+      <c r="J54" t="n">
+        <v>53</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4136961313.108221</v>
+        <v>4755166660.209126</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2216464699585133</v>
+        <v>0.1653535287654082</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02075926695422705</v>
+        <v>0.03069216183771774</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>24</v>
+      </c>
+      <c r="J55" t="n">
+        <v>53</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1471708057.109728</v>
+        <v>1175640384.814312</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1471096246684879</v>
+        <v>0.1108551398036064</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05464656380466576</v>
+        <v>0.04770128910866602</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3742155822.374303</v>
+        <v>3665798947.116187</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1178394097662045</v>
+        <v>0.1839472542750838</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01934484624153473</v>
+        <v>0.02508720831552087</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>19</v>
+      </c>
+      <c r="J57" t="n">
+        <v>52</v>
+      </c>
+      <c r="K57" t="n">
+        <v>190.167614649642</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1860810955.883106</v>
+        <v>1883239756.622438</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1832911071047616</v>
+        <v>0.2014445153638046</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03947584695019336</v>
+        <v>0.02462629646922053</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4010873031.527514</v>
+        <v>5003141256.677555</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08641971523021284</v>
+        <v>0.0860507712402315</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04288639613171829</v>
+        <v>0.04245231141077416</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>25</v>
+      </c>
+      <c r="J59" t="n">
+        <v>53</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2545,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3756587057.078859</v>
+        <v>2664491954.367433</v>
       </c>
       <c r="F60" t="n">
-        <v>0.162858893942769</v>
+        <v>0.2002569663688798</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02730517805855446</v>
+        <v>0.02521069148635508</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>52</v>
+      </c>
+      <c r="K60" t="n">
+        <v>100.470641969052</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2589191862.414755</v>
+        <v>2803232707.107782</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1781822601039267</v>
+        <v>0.1716951302858844</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03156355594025943</v>
+        <v>0.02261432763833119</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1357375869.672176</v>
+        <v>1435795767.781115</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1690791207345196</v>
+        <v>0.1188509248150495</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03499377617819957</v>
+        <v>0.03796973074261761</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4314623456.503445</v>
+        <v>5294642072.651456</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08767001244069511</v>
+        <v>0.06567795017971499</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02977411638857262</v>
+        <v>0.04487110201034301</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>26</v>
+      </c>
+      <c r="J63" t="n">
+        <v>52</v>
+      </c>
+      <c r="K63" t="n">
+        <v>185.9689223637874</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5030329031.86387</v>
+        <v>4881168640.305199</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1653507200729056</v>
+        <v>0.1706203972721023</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03208552754828037</v>
+        <v>0.0302080742369911</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>26</v>
+      </c>
+      <c r="J64" t="n">
+        <v>53</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3941122018.295139</v>
+        <v>4550615775.389148</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1336365432293742</v>
+        <v>0.1400063552290876</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02245353433099192</v>
+        <v>0.02261533381237253</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>43</v>
+      </c>
+      <c r="J65" t="n">
+        <v>52</v>
+      </c>
+      <c r="K65" t="n">
+        <v>204.2423241186623</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2767,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5448203711.719049</v>
+        <v>5680493724.264121</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1297737117188637</v>
+        <v>0.1014206376624005</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0400749348879199</v>
+        <v>0.04890977994650561</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>26</v>
+      </c>
+      <c r="J66" t="n">
+        <v>53</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2994140815.360645</v>
+        <v>2475948795.073662</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09120800044565008</v>
+        <v>0.08805819508395576</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03834485179489727</v>
+        <v>0.03887356660258184</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2837,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5309970270.769626</v>
+        <v>4606618963.297485</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1138572566312363</v>
+        <v>0.1311490897032908</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04810116358549683</v>
+        <v>0.04861028773580148</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>26</v>
+      </c>
+      <c r="J68" t="n">
+        <v>53</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2872,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2448558729.322597</v>
+        <v>1812056808.652591</v>
       </c>
       <c r="F69" t="n">
-        <v>0.181407337959027</v>
+        <v>0.1714507855939064</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03791039589789476</v>
+        <v>0.03819547917385966</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2801151603.254028</v>
+        <v>2318373787.833045</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06644081364858474</v>
+        <v>0.0946327054353963</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04748854713545145</v>
+        <v>0.03950578430154885</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>5</v>
+      </c>
+      <c r="J70" t="n">
+        <v>46</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2942,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4566451965.04777</v>
+        <v>3437515975.397254</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1461408823486423</v>
+        <v>0.1668230040882727</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0256442059279593</v>
+        <v>0.02098213466940774</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>43</v>
+      </c>
+      <c r="J71" t="n">
+        <v>52</v>
+      </c>
+      <c r="K71" t="n">
+        <v>180.6572005891039</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1498028844.67617</v>
+        <v>1843063542.845867</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1051383797594805</v>
+        <v>0.0717642566500982</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04711772864582498</v>
+        <v>0.04252209860178383</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2709113623.424396</v>
+        <v>2370602743.723683</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07075430007973139</v>
+        <v>0.07892569420563098</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04474461612758835</v>
+        <v>0.0514685889944076</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>42</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3043,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3364825964.491305</v>
+        <v>3320860073.852901</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1787327360774486</v>
+        <v>0.1640270727232682</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02590397102135155</v>
+        <v>0.02531491265289072</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>17</v>
+      </c>
+      <c r="J74" t="n">
+        <v>52</v>
+      </c>
+      <c r="K74" t="n">
+        <v>167.5706437551996</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2475324458.716779</v>
+        <v>1904698288.350233</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1616049509371601</v>
+        <v>0.1527216201512908</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03251661629230829</v>
+        <v>0.03251569990391542</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3121,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4139664391.128779</v>
+        <v>4869694539.881618</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1084268564693983</v>
+        <v>0.08074286131878597</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03245593468851025</v>
+        <v>0.03093934645096377</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>24</v>
+      </c>
+      <c r="J76" t="n">
+        <v>53</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1517743569.274681</v>
+        <v>2305703060.296154</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1860810552915562</v>
+        <v>0.1355455835984353</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02447606146244857</v>
+        <v>0.02653889159733014</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4779087968.22394</v>
+        <v>3885985135.285161</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1270283602422523</v>
+        <v>0.08549945137647881</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04493586123675018</v>
+        <v>0.05119067735649074</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>22</v>
+      </c>
+      <c r="J78" t="n">
+        <v>53</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3226,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1243467451.398344</v>
+        <v>1879424320.455235</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1090900357339196</v>
+        <v>0.1095119196596101</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03388947766943059</v>
+        <v>0.03351831372943304</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3261,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5344727928.313488</v>
+        <v>4143866283.312446</v>
       </c>
       <c r="F80" t="n">
-        <v>0.108047201556646</v>
+        <v>0.1090810353208269</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02832933624994849</v>
+        <v>0.0254533181673023</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>25</v>
+      </c>
+      <c r="J80" t="n">
+        <v>53</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3290,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3381025518.840462</v>
+        <v>4205663236.937779</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08269976547930941</v>
+        <v>0.09359966202892465</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03266123000729892</v>
+        <v>0.03210126527746945</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>23</v>
+      </c>
+      <c r="J81" t="n">
+        <v>53</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3325,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3561957417.480804</v>
+        <v>5665200975.468545</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1426789027765609</v>
+        <v>0.1509918948687425</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0264238172297381</v>
+        <v>0.02120111549767775</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>30</v>
+      </c>
+      <c r="J82" t="n">
+        <v>53</v>
+      </c>
+      <c r="K82" t="n">
+        <v>207.5644066652191</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3362,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2433390296.691824</v>
+        <v>1677975807.873002</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09782017283913579</v>
+        <v>0.1118842415223089</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0385958386390849</v>
+        <v>0.03400736659951992</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3403,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1612111694.80215</v>
+        <v>1793166695.99817</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1185980985384808</v>
+        <v>0.08573944509632261</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04818728221554782</v>
+        <v>0.04183619280798385</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3432,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3665830645.582372</v>
+        <v>2693755320.633406</v>
       </c>
       <c r="F85" t="n">
-        <v>0.147636231837655</v>
+        <v>0.1374289575169218</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04550427408211536</v>
+        <v>0.03537001273989056</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>10</v>
+      </c>
+      <c r="J85" t="n">
+        <v>52</v>
+      </c>
+      <c r="K85" t="n">
+        <v>116.4843477277253</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1926274548.932774</v>
+        <v>1791009380.240947</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1415899807133252</v>
+        <v>0.143784395182794</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01662033663299089</v>
+        <v>0.02201033453306431</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1359068177.29667</v>
+        <v>1030108437.89612</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1671001826344564</v>
+        <v>0.1357278033386171</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04221486373819464</v>
+        <v>0.04376369460567536</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2326910742.876374</v>
+        <v>2330821992.152866</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1296752914213605</v>
+        <v>0.1361863427705865</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03460444227650938</v>
+        <v>0.03847831203523974</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>7</v>
+      </c>
+      <c r="J88" t="n">
+        <v>46</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2465327206.463774</v>
+        <v>3139518914.17184</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1261722954553471</v>
+        <v>0.1571184073331756</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04183903565704622</v>
+        <v>0.03623048306974744</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>40</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3615,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2112523069.521913</v>
+        <v>1618473206.526651</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08593838317493324</v>
+        <v>0.0864249327808026</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0485745307618335</v>
+        <v>0.03996215586330414</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3650,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2033023458.519081</v>
+        <v>1830551219.901592</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1917941837388598</v>
+        <v>0.1765412043823055</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04734040200783683</v>
+        <v>0.04966891970370675</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3005626894.31078</v>
+        <v>2746761581.98652</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07574946043842097</v>
+        <v>0.1023072456919133</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03611245924266621</v>
+        <v>0.04523161179045859</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3714,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4539539522.05837</v>
+        <v>3372048684.44281</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1100428951628552</v>
+        <v>0.08674564202342461</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03332120356840042</v>
+        <v>0.03339099812784724</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>23</v>
+      </c>
+      <c r="J93" t="n">
+        <v>50</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3749,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2391122617.23805</v>
+        <v>1808020772.322385</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1592653777098955</v>
+        <v>0.124920740977232</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03488088559349307</v>
+        <v>0.04047829172640622</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3790,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2926341829.921437</v>
+        <v>2138088480.897635</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1016409169178786</v>
+        <v>0.138188578794216</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03833412526462004</v>
+        <v>0.03584159756958957</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3819,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2024713020.737845</v>
+        <v>1466091975.31001</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08607256588555773</v>
+        <v>0.1291110353439093</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04650214071255556</v>
+        <v>0.03373744519066378</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3854,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4348888113.457801</v>
+        <v>3438661299.405025</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1100576415973862</v>
+        <v>0.1732604649830793</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02115390965241315</v>
+        <v>0.02796416936327177</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>26</v>
+      </c>
+      <c r="J97" t="n">
+        <v>52</v>
+      </c>
+      <c r="K97" t="n">
+        <v>177.0496440356716</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3275596899.715337</v>
+        <v>3824913849.018311</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08555596938055608</v>
+        <v>0.1147812959992407</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02493632911224481</v>
+        <v>0.02789363453314415</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>13</v>
+      </c>
+      <c r="J98" t="n">
+        <v>52</v>
+      </c>
+      <c r="K98" t="n">
+        <v>178.1186774615778</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3225128715.915289</v>
+        <v>2757211325.711332</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1265136676752287</v>
+        <v>0.1425665391251404</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02531360922273371</v>
+        <v>0.03400734746045982</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3920392143.300085</v>
+        <v>2916381769.105915</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1247841887291338</v>
+        <v>0.1502201018222528</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02156607594470544</v>
+        <v>0.02031331361172529</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>23</v>
+      </c>
+      <c r="J100" t="n">
+        <v>52</v>
+      </c>
+      <c r="K100" t="n">
+        <v>117.552445858311</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2564417094.299208</v>
+        <v>2463699047.340172</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2000796428050655</v>
+        <v>0.2167531251144234</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04587382748513696</v>
+        <v>0.0423566106686627</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>48</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
